--- a/Chapter 2.xlsx
+++ b/Chapter 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\youssef.fathy\Downloads\ESLSCA-University\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D863883-0DB2-4263-B144-FD43B944C14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6392A0-5215-414A-AE2D-DEA706E77319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Format Sheet" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="110">
   <si>
     <t>#</t>
   </si>
@@ -360,6 +360,12 @@
   </si>
   <si>
     <t>Dec</t>
+  </si>
+  <si>
+    <t>&gt;= 5000</t>
+  </si>
+  <si>
+    <t>&lt;= 3000</t>
   </si>
 </sst>
 </file>
@@ -511,7 +517,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -542,6 +548,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -795,7 +813,7 @@
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -830,9 +848,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -842,6 +857,108 @@
     <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -851,107 +968,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -961,10 +985,321 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF5050"/>
       <color rgb="FFDAEAFE"/>
     </mruColors>
   </colors>
@@ -1022,7 +1357,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1074,7 +1409,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1282,444 +1617,444 @@
       <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:14" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="23" t="s">
+    <row r="2" spans="3:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="3:14" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="26"/>
-    </row>
-    <row r="4" spans="3:14" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="54" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="22"/>
+    </row>
+    <row r="4" spans="3:14" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="55" t="s">
+      <c r="I4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="55" t="s">
+      <c r="J4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="55" t="s">
+      <c r="K4" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="55" t="s">
+      <c r="L4" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="56" t="s">
+      <c r="M4" s="52" t="s">
         <v>9</v>
       </c>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="3:14" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="27">
+    <row r="5" spans="3:14" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="23">
         <v>1</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="26">
         <v>0.45833333333333331</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="27">
         <v>43313</v>
       </c>
-      <c r="J5" s="32">
+      <c r="J5" s="28">
         <v>378210</v>
       </c>
-      <c r="K5" s="33">
+      <c r="K5" s="29">
         <v>0.01</v>
       </c>
-      <c r="L5" s="34">
+      <c r="L5" s="30">
         <f>J5-(J5*K5)</f>
         <v>374427.9</v>
       </c>
-      <c r="M5" s="35">
+      <c r="M5" s="31">
         <v>125515141</v>
       </c>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="3:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="36">
+    <row r="6" spans="3:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="32">
         <v>2</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="35">
         <v>0.54166666666666663</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="36">
         <v>43314</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="37">
         <v>433767</v>
       </c>
-      <c r="K6" s="42">
+      <c r="K6" s="38">
         <v>0.05</v>
       </c>
-      <c r="L6" s="43">
+      <c r="L6" s="39">
         <f t="shared" ref="L6:L14" si="0">J6-(J6*K6)</f>
         <v>412078.65</v>
       </c>
-      <c r="M6" s="44">
+      <c r="M6" s="40">
         <v>125515142</v>
       </c>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="3:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="36">
+    <row r="7" spans="3:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="32">
         <v>3</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="35">
         <v>0.625</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="36">
         <v>43315</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="37">
         <v>176413</v>
       </c>
-      <c r="K7" s="42">
+      <c r="K7" s="38">
         <v>0.1</v>
       </c>
-      <c r="L7" s="43">
+      <c r="L7" s="39">
         <f t="shared" si="0"/>
         <v>158771.70000000001</v>
       </c>
-      <c r="M7" s="44">
+      <c r="M7" s="40">
         <v>125515143</v>
       </c>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="3:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="36">
+    <row r="8" spans="3:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="32">
         <v>4</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="35">
         <v>0.58333333333333337</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="36">
         <v>43316</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="37">
         <v>295502</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="38">
         <v>0.05</v>
       </c>
-      <c r="L8" s="43">
+      <c r="L8" s="39">
         <f t="shared" si="0"/>
         <v>280726.90000000002</v>
       </c>
-      <c r="M8" s="44">
+      <c r="M8" s="40">
         <v>125515144</v>
       </c>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="3:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="36">
+    <row r="9" spans="3:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="32">
         <v>5</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="35">
         <v>0.83333333333333337</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="36">
         <v>43317</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="37">
         <v>422319</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="38">
         <v>0.02</v>
       </c>
-      <c r="L9" s="43">
+      <c r="L9" s="39">
         <f t="shared" si="0"/>
         <v>413872.62</v>
       </c>
-      <c r="M9" s="44">
+      <c r="M9" s="40">
         <v>125515145</v>
       </c>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="3:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="36">
+    <row r="10" spans="3:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="32">
         <v>6</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="35">
         <v>0.8125</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="36">
         <v>43318</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="37">
         <v>550638</v>
       </c>
-      <c r="K10" s="42">
+      <c r="K10" s="38">
         <v>0.03</v>
       </c>
-      <c r="L10" s="43">
+      <c r="L10" s="39">
         <f t="shared" si="0"/>
         <v>534118.86</v>
       </c>
-      <c r="M10" s="44">
+      <c r="M10" s="40">
         <v>125515146</v>
       </c>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="3:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="36">
+    <row r="11" spans="3:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="32">
         <v>7</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="35">
         <v>0.76041666666666663</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="36">
         <v>43319</v>
       </c>
-      <c r="J11" s="41">
+      <c r="J11" s="37">
         <v>286112</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="38">
         <v>0.06</v>
       </c>
-      <c r="L11" s="43">
+      <c r="L11" s="39">
         <f t="shared" si="0"/>
         <v>268945.28000000003</v>
       </c>
-      <c r="M11" s="44">
+      <c r="M11" s="40">
         <v>125515147</v>
       </c>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="3:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="36">
+    <row r="12" spans="3:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="32">
         <v>8</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="35">
         <v>0.47916666666666669</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="36">
         <v>43320</v>
       </c>
-      <c r="J12" s="41">
+      <c r="J12" s="37">
         <v>558352</v>
       </c>
-      <c r="K12" s="42">
+      <c r="K12" s="38">
         <v>0.02</v>
       </c>
-      <c r="L12" s="43">
+      <c r="L12" s="39">
         <f t="shared" si="0"/>
         <v>547184.96</v>
       </c>
-      <c r="M12" s="44">
+      <c r="M12" s="40">
         <v>125515148</v>
       </c>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="3:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="36">
+    <row r="13" spans="3:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="32">
         <v>9</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="35">
         <v>0.9375</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="36">
         <v>43321</v>
       </c>
-      <c r="J13" s="41">
+      <c r="J13" s="37">
         <v>467566</v>
       </c>
-      <c r="K13" s="42">
+      <c r="K13" s="38">
         <v>0.08</v>
       </c>
-      <c r="L13" s="43">
+      <c r="L13" s="39">
         <f t="shared" si="0"/>
         <v>430160.72</v>
       </c>
-      <c r="M13" s="44">
+      <c r="M13" s="40">
         <v>125515149</v>
       </c>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="3:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="45">
+    <row r="14" spans="3:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="41">
         <v>10</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="46" t="s">
+      <c r="F14" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="48">
+      <c r="H14" s="44">
         <v>0.44791666666666669</v>
       </c>
-      <c r="I14" s="49">
+      <c r="I14" s="45">
         <v>43322</v>
       </c>
-      <c r="J14" s="50">
+      <c r="J14" s="46">
         <v>291594</v>
       </c>
-      <c r="K14" s="51">
+      <c r="K14" s="47">
         <v>0.1</v>
       </c>
-      <c r="L14" s="52">
+      <c r="L14" s="48">
         <f t="shared" si="0"/>
         <v>262434.59999999998</v>
       </c>
-      <c r="M14" s="53">
+      <c r="M14" s="49">
         <v>125515150</v>
       </c>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="3:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="3:14" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1730,58 +2065,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:U74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" customWidth="1"/>
+    <col min="16" max="16" width="17.88671875" customWidth="1"/>
+    <col min="18" max="18" width="16.109375" customWidth="1"/>
     <col min="20" max="20" width="16" customWidth="1"/>
-    <col min="21" max="21" width="21.28515625" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" customWidth="1"/>
+    <col min="21" max="21" width="21.33203125" customWidth="1"/>
+    <col min="22" max="22" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="2:21" ht="21" x14ac:dyDescent="0.4">
+      <c r="B2" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
       <c r="G2" s="5" t="s">
         <v>48</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
       <c r="M2" s="4"/>
       <c r="N2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
       <c r="U2" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1825,7 +2160,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1870,7 +2205,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -1915,7 +2250,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>1</v>
       </c>
@@ -1960,7 +2295,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1</v>
       </c>
@@ -1995,7 +2330,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>1</v>
       </c>
@@ -2030,7 +2365,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1</v>
       </c>
@@ -2065,7 +2400,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1</v>
       </c>
@@ -2094,7 +2429,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>1</v>
       </c>
@@ -2123,7 +2458,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>1</v>
       </c>
@@ -2152,7 +2487,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>1</v>
       </c>
@@ -2178,7 +2513,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>1</v>
       </c>
@@ -2204,7 +2539,7 @@
         <v>43477</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>1</v>
       </c>
@@ -2219,183 +2554,183 @@
       </c>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E16" s="11"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E17" s="11"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:14" x14ac:dyDescent="0.3">
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:14" x14ac:dyDescent="0.3">
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:14" x14ac:dyDescent="0.3">
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:14" x14ac:dyDescent="0.3">
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:14" x14ac:dyDescent="0.3">
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:14" x14ac:dyDescent="0.3">
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:14" x14ac:dyDescent="0.3">
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:14" x14ac:dyDescent="0.3">
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:14" x14ac:dyDescent="0.3">
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:14" x14ac:dyDescent="0.3">
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:14" x14ac:dyDescent="0.3">
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:14" x14ac:dyDescent="0.3">
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:14" x14ac:dyDescent="0.3">
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:14" x14ac:dyDescent="0.3">
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:14" x14ac:dyDescent="0.3">
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N74" s="1"/>
     </row>
   </sheetData>
@@ -2414,33 +2749,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="9" customWidth="1"/>
     <col min="8" max="8" width="5" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="7"/>
+    <col min="9" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>109</v>
+      </c>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
     </row>
-    <row r="2" spans="1:7" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>63</v>
       </c>
@@ -2463,310 +2802,388 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <v>6000</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="18">
         <v>557</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="18">
         <v>3863</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="18">
         <v>700</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="18">
         <v>8237</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="18">
         <v>8690</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>9000</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="18">
         <v>1042</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <v>9355</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="18">
         <v>1100</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="18">
         <v>10185</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="18">
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <v>5725</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <v>3072</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>6702</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <v>2116</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <v>13452</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="18">
         <v>8046</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>1344</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <v>4500</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>4415</v>
       </c>
-      <c r="E6" s="19">
-        <v>1089</v>
-      </c>
-      <c r="F6" s="19">
+      <c r="E6" s="18">
+        <v>5000</v>
+      </c>
+      <c r="F6" s="18">
         <v>4404</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="18">
         <v>2344</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <v>6700</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <v>3152</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>11601</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <v>1122</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <v>3170</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="18">
         <v>10733</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <v>3945</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <v>4056</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="18">
         <v>3726</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="18">
         <v>1135</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <v>8817</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="18">
         <v>3434</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <v>8337</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <v>4906</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <v>9007</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <v>2113</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <v>13090</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="18">
         <v>4434</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <v>3742</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="18">
         <v>521</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <v>4505</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="18">
         <v>1024</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <v>3528</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="18">
         <v>2335</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="18">
         <v>8900</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="18">
         <v>3428</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <v>3973</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="18">
         <v>300</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="18">
         <v>4839</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="18">
         <v>5455</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <v>5304</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="18">
         <v>1562</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="18">
         <v>2945</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="18">
         <v>1176</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="18">
         <v>9642</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="18">
         <v>421</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <v>9333</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="18">
         <v>2779</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <v>4505</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="18">
         <v>3400</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <v>5850</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="18">
         <v>6000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" s="9"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A3:A13">
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B13">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D1700C0E-97BE-49BC-9A7F-252D0372B7C7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C13">
+    <cfRule type="dataBar" priority="3">
+      <dataBar showValue="0">
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5975642C-2F55-4375-A4BD-6FE183A59B4B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:G13">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="3000"/>
+        <cfvo type="num" val="6000"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D1700C0E-97BE-49BC-9A7F-252D0372B7C7}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B3:B13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5975642C-2F55-4375-A4BD-6FE183A59B4B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C3:C13</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>